--- a/tabular/Asian_SEA2a_miss.xlsx
+++ b/tabular/Asian_SEA2a_miss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/Asia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3740D245-2EEE-074E-A223-AEBDFDB2BD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D549E943-AE73-A741-B12A-762CEC11241A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6450" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6452" uniqueCount="799">
   <si>
     <t>sequence.sequenceID</t>
   </si>
@@ -2416,6 +2416,12 @@
   </si>
   <si>
     <t>Bovine</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -2518,7 +2524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2602,6 +2608,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="653">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3258,7 +3275,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3283,6 +3300,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="653">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4437,8 +4455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="A1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4463,6 +4481,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>797</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4558,6 +4579,9 @@
       </c>
       <c r="AG1" s="1" t="s">
         <v>730</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -27192,7 +27216,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P228">
     <sortCondition descending="1" ref="K1"/>
   </sortState>
-  <conditionalFormatting sqref="X1:X8 X41:X45 R1:R1048576 T1:T1048576 V1:V1048576 X68:X95 X154:X167 X183:X195 X207:X1048576 Z144:Z1048576 AB1:AB1048576 Z1:Z142 AG1:AG1048576">
+  <conditionalFormatting sqref="X1:X8 X41:X45 R1:R1048576 T1:T1048576 V1:V1048576 X68:X95 X154:X167 X183:X195 X207:X1048576 Z144:Z1048576 AB1:AB1048576 Z1:Z142 AG1:AG1048576 AH1">
     <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
